--- a/src/test/resources/data/jdgroupMAIN_IC_backUp.xlsx
+++ b/src/test/resources/data/jdgroupMAIN_IC_backUp.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD08DE8-57B2-41DB-9493-03E0206A3943}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F70A20-CA7D-46F3-A62A-A8076A522122}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="24" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suites" sheetId="22" r:id="rId1"/>
@@ -5084,17 +5084,7 @@
     <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="534">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="533">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13463,9 +13453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15"/>
@@ -20767,118 +20757,118 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="533" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="532" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B52">
-    <cfRule type="duplicateValues" dxfId="532" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="531" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="duplicateValues" dxfId="531" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="530" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="duplicateValues" dxfId="530" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="529" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="529" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="528" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="528" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="527" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="duplicateValues" dxfId="527" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="526" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="duplicateValues" dxfId="526" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="525" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78">
-    <cfRule type="duplicateValues" dxfId="525" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="524" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79">
-    <cfRule type="duplicateValues" dxfId="524" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="523" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="duplicateValues" dxfId="523" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="522" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="duplicateValues" dxfId="522" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="521" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="duplicateValues" dxfId="521" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="520" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="duplicateValues" dxfId="520" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="519" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="duplicateValues" dxfId="519" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="518" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="duplicateValues" dxfId="518" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="517" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="duplicateValues" dxfId="517" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="516" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="duplicateValues" dxfId="516" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="515" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="duplicateValues" dxfId="515" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="514" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="duplicateValues" dxfId="514" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="513" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B1048576 B102 B55:B57 B59:B62 B67:B68 B71:B74 B77:B83 B1:B31 B33:B49">
-    <cfRule type="duplicateValues" dxfId="513" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="512" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="duplicateValues" dxfId="512" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="511" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="duplicateValues" dxfId="511" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="510" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="duplicateValues" dxfId="510" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="509" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="duplicateValues" dxfId="509" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="508" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87:B91">
-    <cfRule type="duplicateValues" dxfId="508" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="507" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="duplicateValues" dxfId="507" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="506" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:D90">
-    <cfRule type="duplicateValues" dxfId="506" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="505" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92">
-    <cfRule type="duplicateValues" dxfId="505" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="504" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="duplicateValues" dxfId="504" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="503" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="duplicateValues" dxfId="503" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="502" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="duplicateValues" dxfId="502" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="501" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="duplicateValues" dxfId="501" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="500" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="duplicateValues" dxfId="500" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="499" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="duplicateValues" dxfId="499" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="498" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G97:I97">
-    <cfRule type="duplicateValues" dxfId="498" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="497" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="duplicateValues" dxfId="497" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="496" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="496" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="495" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100:B101">
     <cfRule type="duplicateValues" dxfId="494" priority="23"/>
@@ -23510,7 +23500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H2" sqref="H2"/>
       <selection pane="topRight" activeCell="H2" sqref="H2"/>
